--- a/DailyPeakHour Prediction 2006.xlsx
+++ b/DailyPeakHour Prediction 2006.xlsx
@@ -1,1140 +1,1126 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yufeiwang/Desktop/suju/2019spring/time series/final project/time_series_prediction_for_US_Power_Company/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13120" windowHeight="6100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="367">
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>DailyPeakHour</t>
-  </si>
-  <si>
-    <t>16.9581376688999</t>
-  </si>
-  <si>
-    <t>20.1908093850818</t>
-  </si>
-  <si>
-    <t>11.624659443833</t>
-  </si>
-  <si>
-    <t>11.16860688088</t>
-  </si>
-  <si>
-    <t>16.2975689782316</t>
-  </si>
-  <si>
-    <t>17.2953948700494</t>
-  </si>
-  <si>
-    <t>7.13965888309117</t>
-  </si>
-  <si>
-    <t>7.38908297216546</t>
-  </si>
-  <si>
-    <t>10.574861753176</t>
-  </si>
-  <si>
-    <t>9.14239472227336</t>
-  </si>
-  <si>
-    <t>11.8997060241304</t>
-  </si>
-  <si>
-    <t>11.9014997004034</t>
-  </si>
-  <si>
-    <t>7.89617755383585</t>
-  </si>
-  <si>
-    <t>7.89620777035097</t>
-  </si>
-  <si>
-    <t>7.84758159193676</t>
-  </si>
-  <si>
-    <t>12.5351356878174</t>
-  </si>
-  <si>
-    <t>11.626405069863</t>
-  </si>
-  <si>
-    <t>11.8731839693005</t>
-  </si>
-  <si>
-    <t>8.59874945037752</t>
-  </si>
-  <si>
-    <t>7.60054312665054</t>
-  </si>
-  <si>
-    <t>11.4465705994502</t>
-  </si>
-  <si>
-    <t>18.2163218422529</t>
-  </si>
-  <si>
-    <t>8.14455099672776</t>
-  </si>
-  <si>
-    <t>8.39265249098363</t>
-  </si>
-  <si>
-    <t>16.8894243291767</t>
-  </si>
-  <si>
-    <t>16.5936086029007</t>
-  </si>
-  <si>
-    <t>7.84794419011814</t>
-  </si>
-  <si>
-    <t>7.60210745358988</t>
-  </si>
-  <si>
-    <t>7.89754274795664</t>
-  </si>
-  <si>
-    <t>16.5959337936585</t>
-  </si>
-  <si>
-    <t>20.4901767964481</t>
-  </si>
-  <si>
-    <t>11.8749295953305</t>
-  </si>
-  <si>
-    <t>11.1212676298285</t>
-  </si>
-  <si>
-    <t>17.168028045505</t>
-  </si>
-  <si>
-    <t>7.44120040263973</t>
-  </si>
-  <si>
-    <t>10.3725156116909</t>
-  </si>
-  <si>
-    <t>20.8513324098456</t>
-  </si>
-  <si>
-    <t>9.44173191712455</t>
-  </si>
-  <si>
-    <t>11.6082330632783</t>
-  </si>
-  <si>
-    <t>16.9214606616733</t>
-  </si>
-  <si>
-    <t>16.5962661753248</t>
-  </si>
-  <si>
-    <t>10.3700517211447</t>
-  </si>
-  <si>
-    <t>16.3464918708563</t>
-  </si>
-  <si>
-    <t>8.3428369665987</t>
-  </si>
-  <si>
-    <t>16.8878243347816</t>
-  </si>
-  <si>
-    <t>20.1412781921201</t>
-  </si>
-  <si>
-    <t>20.1413084086352</t>
-  </si>
-  <si>
-    <t>11.7397054686337</t>
-  </si>
-  <si>
-    <t>7.14225057154441</t>
-  </si>
-  <si>
-    <t>11.2372310519638</t>
-  </si>
-  <si>
-    <t>20.144515329272</t>
-  </si>
-  <si>
-    <t>18.0749465410677</t>
-  </si>
-  <si>
-    <t>17.1694838891711</t>
-  </si>
-  <si>
-    <t>11.1227839065248</t>
-  </si>
-  <si>
-    <t>16.2986389390479</t>
-  </si>
-  <si>
-    <t>20.1446664118476</t>
-  </si>
-  <si>
-    <t>20.1446966283627</t>
-  </si>
-  <si>
-    <t>11.6953190233108</t>
-  </si>
-  <si>
-    <t>11.6944675099469</t>
-  </si>
-  <si>
-    <t>20.1443464129686</t>
-  </si>
-  <si>
-    <t>20.1448174944232</t>
-  </si>
-  <si>
-    <t>20.1452885758778</t>
-  </si>
-  <si>
-    <t>20.1466413872113</t>
-  </si>
-  <si>
-    <t>20.145349008908</t>
-  </si>
-  <si>
-    <t>20.1462609553021</t>
-  </si>
-  <si>
-    <t>20.1471729016961</t>
-  </si>
-  <si>
-    <t>20.1467622532718</t>
-  </si>
-  <si>
-    <t>16.9205432643386</t>
-  </si>
-  <si>
-    <t>20.3935713692243</t>
-  </si>
-  <si>
-    <t>16.9210445623083</t>
-  </si>
-  <si>
-    <t>16.9210747788235</t>
-  </si>
-  <si>
-    <t>17.4159249560017</t>
-  </si>
-  <si>
-    <t>20.145620957544</t>
-  </si>
-  <si>
-    <t>20.1443285792407</t>
-  </si>
-  <si>
-    <t>20.1434770658769</t>
-  </si>
-  <si>
-    <t>20.1439481473315</t>
-  </si>
-  <si>
-    <t>20.1439783638466</t>
-  </si>
-  <si>
-    <t>20.1444494453012</t>
-  </si>
-  <si>
-    <t>19.2578235633219</t>
-  </si>
-  <si>
-    <t>19.256972049958</t>
-  </si>
-  <si>
-    <t>20.3921705076478</t>
-  </si>
-  <si>
-    <t>16.9187619708529</t>
-  </si>
-  <si>
-    <t>16.918792187368</t>
-  </si>
-  <si>
-    <t>20.1446307443919</t>
-  </si>
-  <si>
-    <t>20.1455426907859</t>
-  </si>
-  <si>
-    <t>20.1451320423616</t>
-  </si>
-  <si>
-    <t>17.8893760920989</t>
-  </si>
-  <si>
-    <t>20.1451924753918</t>
-  </si>
-  <si>
-    <t>20.4393051749401</t>
-  </si>
-  <si>
-    <t>16.2957287326216</t>
-  </si>
-  <si>
-    <t>16.2948772192578</t>
-  </si>
-  <si>
-    <t>16.9142146216698</t>
-  </si>
-  <si>
-    <t>19.5474795632325</t>
-  </si>
-  <si>
-    <t>15.0344521153636</t>
-  </si>
-  <si>
-    <t>15.8135640466652</t>
-  </si>
-  <si>
-    <t>20.5458067530199</t>
-  </si>
-  <si>
-    <t>21.1366471252383</t>
-  </si>
-  <si>
-    <t>18.3843077545547</t>
-  </si>
-  <si>
-    <t>20.3911711302278</t>
-  </si>
-  <si>
-    <t>16.5443223605794</t>
-  </si>
-  <si>
-    <t>18.5092042992243</t>
-  </si>
-  <si>
-    <t>20.2444108651063</t>
-  </si>
-  <si>
-    <t>20.5376418347757</t>
-  </si>
-  <si>
-    <t>17.9026738664853</t>
-  </si>
-  <si>
-    <t>17.3110121974182</t>
-  </si>
-  <si>
-    <t>15.6469481327378</t>
-  </si>
-  <si>
-    <t>18.1285728565394</t>
-  </si>
-  <si>
-    <t>18.129925667873</t>
-  </si>
-  <si>
-    <t>17.7854535466676</t>
-  </si>
-  <si>
-    <t>19.7207962566065</t>
-  </si>
-  <si>
-    <t>18.1300163174183</t>
-  </si>
-  <si>
-    <t>18.4258924767245</t>
-  </si>
-  <si>
-    <t>18.1309584803275</t>
-  </si>
-  <si>
-    <t>15.8760842599438</t>
-  </si>
-  <si>
-    <t>18.1332232380551</t>
-  </si>
-  <si>
-    <t>18.1323717246913</t>
-  </si>
-  <si>
-    <t>18.3804732189471</t>
-  </si>
-  <si>
-    <t>18.3805034354622</t>
-  </si>
-  <si>
-    <t>18.1324623742366</t>
-  </si>
-  <si>
-    <t>19.6281942812938</t>
-  </si>
-  <si>
-    <t>17.6368211167248</t>
-  </si>
-  <si>
-    <t>17.1343164835398</t>
-  </si>
-  <si>
-    <t>18.3824179777957</t>
-  </si>
-  <si>
-    <t>18.4302228593612</t>
-  </si>
-  <si>
-    <t>18.8407655149914</t>
-  </si>
-  <si>
-    <t>18.3847129520384</t>
-  </si>
-  <si>
-    <t>18.4325178336039</t>
-  </si>
-  <si>
-    <t>17.1384655670858</t>
-  </si>
-  <si>
-    <t>17.8868975863444</t>
-  </si>
-  <si>
-    <t>17.8391531378091</t>
-  </si>
-  <si>
-    <t>18.1350292971154</t>
-  </si>
-  <si>
-    <t>18.1350595136305</t>
-  </si>
-  <si>
-    <t>17.8870184524048</t>
-  </si>
-  <si>
-    <t>17.8874895338594</t>
-  </si>
-  <si>
-    <t>17.8870788854351</t>
-  </si>
-  <si>
-    <t>16.6790976002228</t>
-  </si>
-  <si>
-    <t>16.1274957071691</t>
-  </si>
-  <si>
-    <t>16.9527387714356</t>
-  </si>
-  <si>
-    <t>18.1308623798415</t>
-  </si>
-  <si>
-    <t>18.1256022170829</t>
-  </si>
-  <si>
-    <t>18.1199011893849</t>
-  </si>
-  <si>
-    <t>18.4210677279648</t>
-  </si>
-  <si>
-    <t>17.8298469238371</t>
-  </si>
-  <si>
-    <t>18.1213144337486</t>
-  </si>
-  <si>
-    <t>18.1164951359295</t>
-  </si>
-  <si>
-    <t>18.3593062509117</t>
-  </si>
-  <si>
-    <t>18.3544869530926</t>
-  </si>
-  <si>
-    <t>18.104682432109</t>
-  </si>
-  <si>
-    <t>16.6924367497511</t>
-  </si>
-  <si>
-    <t>16.6385201920632</t>
-  </si>
-  <si>
-    <t>17.8465619103057</t>
-  </si>
-  <si>
-    <t>15.8450493469365</t>
-  </si>
-  <si>
-    <t>16.3735647385329</t>
-  </si>
-  <si>
-    <t>17.900599334054</t>
-  </si>
-  <si>
-    <t>18.047420253996</t>
-  </si>
-  <si>
-    <t>16.0943434056825</t>
-  </si>
-  <si>
-    <t>15.0910673825554</t>
-  </si>
-  <si>
-    <t>16.442433095949</t>
-  </si>
-  <si>
-    <t>18.0997244345016</t>
-  </si>
-  <si>
-    <t>16.8169139765362</t>
-  </si>
-  <si>
-    <t>16.5129424962838</t>
-  </si>
-  <si>
-    <t>16.4651980477485</t>
-  </si>
-  <si>
-    <t>17.0622105291196</t>
-  </si>
-  <si>
-    <t>17.1144240600798</t>
-  </si>
-  <si>
-    <t>16.1626698065848</t>
-  </si>
-  <si>
-    <t>15.0675915579386</t>
-  </si>
-  <si>
-    <t>17.819550496713</t>
-  </si>
-  <si>
-    <t>15.1015396578296</t>
-  </si>
-  <si>
-    <t>18.1092847633817</t>
-  </si>
-  <si>
-    <t>16.297989130335</t>
-  </si>
-  <si>
-    <t>15.8714138122791</t>
-  </si>
-  <si>
-    <t>17.127230195572</t>
-  </si>
-  <si>
-    <t>17.8719151102488</t>
-  </si>
-  <si>
-    <t>18.3680878822454</t>
-  </si>
-  <si>
-    <t>18.1200468210198</t>
-  </si>
-  <si>
-    <t>17.1258082817481</t>
-  </si>
-  <si>
-    <t>17.4216844410543</t>
-  </si>
-  <si>
-    <t>15.3257244625292</t>
-  </si>
-  <si>
-    <t>18.125458066354</t>
-  </si>
-  <si>
-    <t>15.8778578700678</t>
-  </si>
-  <si>
-    <t>17.8730385722487</t>
-  </si>
-  <si>
-    <t>15.4392241203362</t>
-  </si>
-  <si>
-    <t>17.2182117065103</t>
-  </si>
-  <si>
-    <t>15.1092971461689</t>
-  </si>
-  <si>
-    <t>16.182646625821</t>
-  </si>
-  <si>
-    <t>18.1084758493202</t>
-  </si>
-  <si>
-    <t>18.2434363057179</t>
-  </si>
-  <si>
-    <t>15.4930727831852</t>
-  </si>
-  <si>
-    <t>14.363904004031</t>
-  </si>
-  <si>
-    <t>17.4671972064187</t>
-  </si>
-  <si>
-    <t>17.6899921038801</t>
-  </si>
-  <si>
-    <t>14.737118119214</t>
-  </si>
-  <si>
-    <t>15.2935792731378</t>
-  </si>
-  <si>
-    <t>15.0543984450192</t>
-  </si>
-  <si>
-    <t>18.6799730763326</t>
-  </si>
-  <si>
-    <t>19.114950123624</t>
-  </si>
-  <si>
-    <t>17.0947261213263</t>
-  </si>
-  <si>
-    <t>15.4689995346501</t>
-  </si>
-  <si>
-    <t>16.763943277583</t>
-  </si>
-  <si>
-    <t>16.7192765921436</t>
-  </si>
-  <si>
-    <t>17.1747107218952</t>
-  </si>
-  <si>
-    <t>16.5316035825895</t>
-  </si>
-  <si>
-    <t>18.4207066106894</t>
-  </si>
-  <si>
-    <t>14.8950901806617</t>
-  </si>
-  <si>
-    <t>14.9855917363969</t>
-  </si>
-  <si>
-    <t>17.081585301788</t>
-  </si>
-  <si>
-    <t>17.3563255124025</t>
-  </si>
-  <si>
-    <t>15.1386785635976</t>
-  </si>
-  <si>
-    <t>17.3997853261642</t>
-  </si>
-  <si>
-    <t>17.9311922001701</t>
-  </si>
-  <si>
-    <t>18.2904523207256</t>
-  </si>
-  <si>
-    <t>16.0736871017997</t>
-  </si>
-  <si>
-    <t>14.57515025307</t>
-  </si>
-  <si>
-    <t>15.2998011339999</t>
-  </si>
-  <si>
-    <t>16.2056141399784</t>
-  </si>
-  <si>
-    <t>16.6751988821108</t>
-  </si>
-  <si>
-    <t>18.3320493557239</t>
-  </si>
-  <si>
-    <t>14.9275268538835</t>
-  </si>
-  <si>
-    <t>18.3056834607887</t>
-  </si>
-  <si>
-    <t>17.688477193635</t>
-  </si>
-  <si>
-    <t>17.4180032017981</t>
-  </si>
-  <si>
-    <t>17.5745404718271</t>
-  </si>
-  <si>
-    <t>19.1655837076929</t>
-  </si>
-  <si>
-    <t>19.1842997502375</t>
-  </si>
-  <si>
-    <t>17.3063056248188</t>
-  </si>
-  <si>
-    <t>15.0917035688416</t>
-  </si>
-  <si>
-    <t>16.8155138816412</t>
-  </si>
-  <si>
-    <t>17.3984013635306</t>
-  </si>
-  <si>
-    <t>16.176345765331</t>
-  </si>
-  <si>
-    <t>16.2368928403197</t>
-  </si>
-  <si>
-    <t>18.5748124204631</t>
-  </si>
-  <si>
-    <t>16.4876870621461</t>
-  </si>
-  <si>
-    <t>14.6906764024069</t>
-  </si>
-  <si>
-    <t>15.3948606761309</t>
-  </si>
-  <si>
-    <t>18.0283708763548</t>
-  </si>
-  <si>
-    <t>17.7543443521032</t>
-  </si>
-  <si>
-    <t>17.6810553054814</t>
-  </si>
-  <si>
-    <t>17.9157613529815</t>
-  </si>
-  <si>
-    <t>15.9023454362464</t>
-  </si>
-  <si>
-    <t>17.5279707540542</t>
-  </si>
-  <si>
-    <t>15.4154881124482</t>
-  </si>
-  <si>
-    <t>17.8517955512309</t>
-  </si>
-  <si>
-    <t>17.1252036422813</t>
-  </si>
-  <si>
-    <t>17.2608429649105</t>
-  </si>
-  <si>
-    <t>16.3824079745524</t>
-  </si>
-  <si>
-    <t>17.6592840071436</t>
-  </si>
-  <si>
-    <t>15.9142442734566</t>
-  </si>
-  <si>
-    <t>17.0287225737987</t>
-  </si>
-  <si>
-    <t>15.4890307966722</t>
-  </si>
-  <si>
-    <t>19.7357768258415</t>
-  </si>
-  <si>
-    <t>18.3787909877593</t>
-  </si>
-  <si>
-    <t>17.5822211929597</t>
-  </si>
-  <si>
-    <t>18.1254897637751</t>
-  </si>
-  <si>
-    <t>17.1866900920963</t>
-  </si>
-  <si>
-    <t>16.9111792711276</t>
-  </si>
-  <si>
-    <t>16.5627160199445</t>
-  </si>
-  <si>
-    <t>17.634504903486</t>
-  </si>
-  <si>
-    <t>18.2839113596224</t>
-  </si>
-  <si>
-    <t>18.1230258732289</t>
-  </si>
-  <si>
-    <t>18.2839717926526</t>
-  </si>
-  <si>
-    <t>17.4449177120763</t>
-  </si>
-  <si>
-    <t>15.3942995973578</t>
-  </si>
-  <si>
-    <t>18.7090900592399</t>
-  </si>
-  <si>
-    <t>18.7042707614208</t>
-  </si>
-  <si>
-    <t>18.1210028476222</t>
-  </si>
-  <si>
-    <t>18.4428644699545</t>
-  </si>
-  <si>
-    <t>17.1452852839206</t>
-  </si>
-  <si>
-    <t>17.0053072696725</t>
-  </si>
-  <si>
-    <t>14.9659565764058</t>
-  </si>
-  <si>
-    <t>15.3419500203623</t>
-  </si>
-  <si>
-    <t>19.2732569379329</t>
-  </si>
-  <si>
-    <t>19.2715236946901</t>
-  </si>
-  <si>
-    <t>19.301948023626</t>
-  </si>
-  <si>
-    <t>18.7855814658468</t>
-  </si>
-  <si>
-    <t>17.4215596049593</t>
-  </si>
-  <si>
-    <t>16.8785543308214</t>
-  </si>
-  <si>
-    <t>17.2629086597783</t>
-  </si>
-  <si>
-    <t>16.9486021744473</t>
-  </si>
-  <si>
-    <t>19.3184413254773</t>
-  </si>
-  <si>
-    <t>18.7197436336048</t>
-  </si>
-  <si>
-    <t>17.9115162389082</t>
-  </si>
-  <si>
-    <t>17.2073923982145</t>
-  </si>
-  <si>
-    <t>17.0522381560342</t>
-  </si>
-  <si>
-    <t>19.6621956944759</t>
-  </si>
-  <si>
-    <t>19.1790379373258</t>
-  </si>
-  <si>
-    <t>17.8431975726811</t>
-  </si>
-  <si>
-    <t>19.6458048426891</t>
-  </si>
-  <si>
-    <t>20.1415367497463</t>
-  </si>
-  <si>
-    <t>19.8717064864963</t>
-  </si>
-  <si>
-    <t>18.3284983487111</t>
-  </si>
-  <si>
-    <t>19.8197959934744</t>
-  </si>
-  <si>
-    <t>20.1420984807462</t>
-  </si>
-  <si>
-    <t>19.8709456226778</t>
-  </si>
-  <si>
-    <t>18.6369788744395</t>
-  </si>
-  <si>
-    <t>18.8782800798055</t>
-  </si>
-  <si>
-    <t>17.758133235657</t>
-  </si>
-  <si>
-    <t>19.7370179787347</t>
-  </si>
-  <si>
-    <t>19.5237207013496</t>
-  </si>
-  <si>
-    <t>19.3890586792743</t>
-  </si>
-  <si>
-    <t>19.3890888957894</t>
-  </si>
-  <si>
-    <t>19.3891191123046</t>
-  </si>
-  <si>
-    <t>18.7794248705405</t>
-  </si>
-  <si>
-    <t>17.9181407230004</t>
-  </si>
-  <si>
-    <t>16.6230038629559</t>
-  </si>
-  <si>
-    <t>19.1407278356848</t>
-  </si>
-  <si>
-    <t>19.1403171872604</t>
-  </si>
-  <si>
-    <t>18.4648144744839</t>
-  </si>
-  <si>
-    <t>19.1394958904117</t>
-  </si>
-  <si>
-    <t>19.1395261069268</t>
-  </si>
-  <si>
-    <t>18.8952404417634</t>
-  </si>
-  <si>
-    <t>16.6688771455239</t>
-  </si>
-  <si>
-    <t>19.1396167564722</t>
-  </si>
-  <si>
-    <t>19.387718250728</t>
-  </si>
-  <si>
-    <t>19.1396771895024</t>
-  </si>
-  <si>
-    <t>19.140148270957</t>
-  </si>
-  <si>
-    <t>19.3010941903807</t>
-  </si>
-  <si>
-    <t>15.7254284953158</t>
-  </si>
-  <si>
-    <t>19.1406797854418</t>
-  </si>
-  <si>
-    <t>19.1402691370174</t>
-  </si>
-  <si>
-    <t>19.709761172151</t>
-  </si>
-  <si>
-    <t>14.6912137713606</t>
-  </si>
-  <si>
-    <t>8.76260871972962</t>
-  </si>
-  <si>
-    <t>17.3478587275733</t>
-  </si>
-  <si>
-    <t>17.5252251254578</t>
-  </si>
-  <si>
-    <t>19.3048930585325</t>
-  </si>
-  <si>
-    <t>17.5352914079927</t>
-  </si>
-  <si>
-    <t>17.3739650566598</t>
-  </si>
-  <si>
-    <t>17.2130795702663</t>
-  </si>
-  <si>
-    <t>15.6375265455047</t>
-  </si>
-  <si>
-    <t>9.38800345493855</t>
-  </si>
-  <si>
-    <t>11.3585308136575</t>
-  </si>
-  <si>
-    <t>18.938261965681</t>
-  </si>
-  <si>
-    <t>8.19023029303732</t>
-  </si>
-  <si>
-    <t>18.3012371511968</t>
-  </si>
-  <si>
-    <t>10.3683244015259</t>
-  </si>
-  <si>
-    <t>7.39370360984937</t>
-  </si>
-  <si>
-    <t>18.300066228795</t>
-  </si>
-  <si>
-    <t>20.3664559850351</t>
-  </si>
-  <si>
-    <t>15.7704679900707</t>
-  </si>
-  <si>
-    <t>11.1695014662295</t>
-  </si>
-  <si>
-    <t>16.3722236916576</t>
-  </si>
-  <si>
-    <t>17.5253281577904</t>
-  </si>
-  <si>
-    <t>19.7364160021256</t>
-  </si>
-  <si>
-    <t>20.1949713240983</t>
-  </si>
-  <si>
-    <t>18.7778987344712</t>
-  </si>
-  <si>
-    <t>15.7759698849502</t>
-  </si>
-  <si>
-    <t>17.0863624554484</t>
-  </si>
-  <si>
-    <t>17.4657628912482</t>
-  </si>
-  <si>
-    <t>7.15263812089725</t>
-  </si>
-  <si>
-    <t>15.4259688784427</t>
-  </si>
-  <si>
-    <t>7.1540211487459</t>
-  </si>
-  <si>
-    <t>10.3322293480258</t>
-  </si>
-  <si>
-    <t>16.396265937509</t>
-  </si>
-  <si>
-    <t>12.1314079961198</t>
-  </si>
-  <si>
-    <t>8.06742730491366</t>
-  </si>
-  <si>
-    <t>8.15417223132147</t>
-  </si>
-  <si>
-    <t>19.1542024478366</t>
-  </si>
-  <si>
-    <t>19.1985203383698</t>
-  </si>
-  <si>
-    <t>9.64864197659043</t>
-  </si>
-  <si>
-    <t>11.968028402665</t>
-  </si>
-  <si>
-    <t>8.90492944133787</t>
-  </si>
-  <si>
-    <t>8.31306490862337</t>
-  </si>
-  <si>
-    <t>9.63729379081682</t>
-  </si>
-  <si>
-    <t>16.4247481784151</t>
-  </si>
-  <si>
-    <t>16.6663119471315</t>
+    <t xml:space="preserve">Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DailyPeakHour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8022140138882</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0148021609677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9701257058724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6258326247229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3998068545905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4530899894615</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3539629857709</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70576236661561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9194766049396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.45628144237067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6528905272971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6581543254981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05639570555613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05640829461428</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05263712545327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.732109914765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9727677201967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3234053232649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75133919893369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70021128400272</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3155429813733</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8651356415655</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40789663235353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75817653056565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1136991978223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7588512162481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05212262072831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.70079520772056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.05591479354506</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7556621014672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3787992505164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3169025906484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6180698800679</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8098464457198</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.71337255767373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9222053989376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.7247405657648</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.81638026027613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3106126783049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4647622596813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.764023554554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.9178340787967</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4124241390164</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.75592628607686</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1219638938582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0211492525154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0211820988197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6660511878765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.3574177840003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.3201729500321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0285087420599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5467092691001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8223156068398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6231124338869</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4139484304795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0275974921155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0275254323336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.6704966055052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.668990228902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0263499992018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0228760894878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0229097247215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0266000041528</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0230053035471</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0243090781097</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0288906331857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0280046114237</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4688861577168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3772467230449</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4712934511239</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4713191871492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1700741689221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0281477884524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0290458317374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0288747974184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0301143946184</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0301472533907</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0313872669138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9691233350336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9694587423057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.382984830986</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4779809385835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4780066845751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0337830527864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0350549414123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0350808846904</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9337520975508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0367187735915</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3877877480542</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4228770825022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4221401237518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4490247000768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3171413644604</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.9785940078139</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7054354493131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3664792455966</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.0716316315828</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2694629795575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0133642091092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4202692576801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5418274582829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0091688097339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3553907804457</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4677666298298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7615575321817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.3748835101715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9072601155018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9094333499839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5552132967435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6629150792098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9073706407391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2600043199936</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9075266309857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8179870132291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9108132898559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9076163442912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2603013426484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2602240447804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9075617444768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.6636419775441</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2033083680874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8614270776738</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2648956825613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2654038666558</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6093444674456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2647115038807</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2658173016185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8626587931127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5484631353405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5472394581021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9005335675062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.90056309635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5485943832517</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5497010771119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.537561544621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4948265884446</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.146198415778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4773819497988</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8777273245057</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8777568173501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8649866161311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2168992066077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.514050534983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8554061685601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8437317566696</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1831074365771</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1722944743689</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8188483542403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4253906599191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4172522918649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4533319038412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.731107208525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7116694198657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4517482925794</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7971807372546</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.704188632154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.022911593201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0495458362805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7804102681859</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0318457127669</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0378032506552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0397393780103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7365146780464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7365117502949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.6950640867867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.6393675154979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4182825657863</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.987205106166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7546605718716</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.0411327722974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3317150760976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.369182746974</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.4181817284255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.1169443452224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7676067426588</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.7262430015899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0780995868527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.9836422423214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7675168288954</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.3351840585232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.41975974876</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7216382213247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.0178359024019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7632993028159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1641976812028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9148617761147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2667342427012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8132321236036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.4093031725439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5175737049292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9178761403717</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0628757940968</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7613606314993</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8120982527402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9644306163234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9770893133075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8863563486577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4864107015883</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2378401686185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8867017087753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8366533316227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.148393997358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6624291577942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.8145612205512</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8647248174673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5784516896362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2915079246858</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.830402319082</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9429735854941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2608828756927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3728038752381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9264419291031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.5147965362531</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2122977539976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9714805715074</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3509177283263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.4092232987534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2522450881953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3995485499889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9777430751439</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3436277472613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.7001366208816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.1068837887747</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7371065653167</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3403197053166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.2579267282366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6344182401365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3207256080565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.9227150472241</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5657642939242</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.7346386017864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.6255394085971</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.2179009257324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.570396535656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.677202092397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.3160153227175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9553890327698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.6600392438938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8893219585186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9486514917493</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8819500595291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2943150587793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5401901351043</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9460757522682</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5979427551042</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.9217249340983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5138933619508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6686823887331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.0783120677808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.0577633717834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3068950348707</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9422279617267</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9422780982117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8875007132611</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1948431496131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9363813839422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.285159055867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2872938508723</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9360865124925</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2873541050979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5866147022339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.482154957877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6333985593673</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6225347801076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9247058552995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6268950427597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8680299238436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8718282295649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1270026455711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.7328448383059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6215095597942</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6187881633579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6119803218583</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9129720192817</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.561887939555</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5113931896125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2115682964884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5038900167455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.610983995752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5958738730899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.9208528828582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5751967306833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.2209286025927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9521670760881</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.8854773429424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5506973709953</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3104668143416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9978148462753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2935009594361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.253405961077</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2911741058324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9972431363736</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2912922655354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.5842859613293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.915621470459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.259553506532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9428111107399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.585434612636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2914899284148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2915267856602</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2915643992678</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.6100400522055</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.5523902191572</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.8561659773092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9463618188185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9452049490878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.1833240464788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9429926158788</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.942974371787</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.2399396047726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.2963148167118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9442466791099</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2874005458841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9431795092414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9443477969507</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.2977805552119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8303040811818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9457313851302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9457036430554</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.9953543616887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.5708767119051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.571314729812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0560135083549</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7297218070924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3052520575279</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4124946545961</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.0581429050128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.704330350245</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6471269979129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1514007738194</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.6654254107172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.4593915421174</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76053668075712</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.4340468238726</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.831150861627</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.69520288010425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.7435323120606</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3404387569263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9876483631753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.897473730281</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.1945490079887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.7330217751458</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3035506423254</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3657149831437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.1348713706007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.9988206292113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.8828653323976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2381718253419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35500058513757</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2692931328425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.35582020543854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.0104810008753</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.3635028889098</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.5976532763922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.41978433915129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.40871321185623</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.9706812798837</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17.5179808084575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1467735157395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.2375785776135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.11350736403381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.76114088545412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.2722089947095</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.1783996086142</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16.5275840776129</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1163,20 +1149,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1458,2940 +1437,2935 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B366"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" t="n">
         <v>38718</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" t="n">
         <v>38719</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" t="n">
         <v>38720</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" t="n">
         <v>38721</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" t="n">
         <v>38722</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" t="n">
         <v>38723</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" t="n">
         <v>38724</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" t="n">
         <v>38725</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" t="n">
         <v>38726</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" t="n">
         <v>38727</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" t="n">
         <v>38728</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" t="n">
         <v>38729</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" t="n">
         <v>38730</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" t="n">
         <v>38731</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" t="n">
         <v>38732</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" t="n">
         <v>38733</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" t="n">
         <v>38734</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" t="n">
         <v>38735</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" t="n">
         <v>38736</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" t="n">
         <v>38737</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" t="n">
         <v>38738</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" t="n">
         <v>38739</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" t="n">
         <v>38740</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" t="n">
         <v>38741</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" t="n">
         <v>38742</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" t="n">
         <v>38743</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" t="n">
         <v>38744</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" t="n">
         <v>38745</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" t="n">
         <v>38746</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" t="n">
         <v>38747</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" t="n">
         <v>38748</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" t="n">
         <v>38749</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" t="n">
         <v>38750</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" t="n">
         <v>38751</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" t="n">
         <v>38752</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" t="n">
         <v>38753</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" t="n">
         <v>38754</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" t="n">
         <v>38755</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40">
+      <c r="A40" t="n">
         <v>38756</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41">
+      <c r="A41" t="n">
         <v>38757</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42">
+      <c r="A42" t="n">
         <v>38758</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+    <row r="43">
+      <c r="A43" t="n">
         <v>38759</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44">
+      <c r="A44" t="n">
         <v>38760</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45">
+      <c r="A45" t="n">
         <v>38761</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46">
+      <c r="A46" t="n">
         <v>38762</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47">
+      <c r="A47" t="n">
         <v>38763</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48">
+      <c r="A48" t="n">
         <v>38764</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49">
+      <c r="A49" t="n">
         <v>38765</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50">
+      <c r="A50" t="n">
         <v>38766</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51">
+      <c r="A51" t="n">
         <v>38767</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52">
+      <c r="A52" t="n">
         <v>38768</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53">
+      <c r="A53" t="n">
         <v>38769</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54">
+      <c r="A54" t="n">
         <v>38770</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+    <row r="55">
+      <c r="A55" t="n">
         <v>38771</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56">
+      <c r="A56" t="n">
         <v>38772</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57">
+      <c r="A57" t="n">
         <v>38773</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+    <row r="58">
+      <c r="A58" t="n">
         <v>38774</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59">
+      <c r="A59" t="n">
         <v>38775</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60">
+      <c r="A60" t="n">
         <v>38776</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61">
+      <c r="A61" t="n">
         <v>38777</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62">
+      <c r="A62" t="n">
         <v>38778</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+    <row r="63">
+      <c r="A63" t="n">
         <v>38779</v>
       </c>
       <c r="B63" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64">
+      <c r="A64" t="n">
         <v>38780</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65">
+      <c r="A65" t="n">
         <v>38781</v>
       </c>
       <c r="B65" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+    <row r="66">
+      <c r="A66" t="n">
         <v>38782</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67">
+      <c r="A67" t="n">
         <v>38783</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68">
+      <c r="A68" t="n">
         <v>38784</v>
       </c>
       <c r="B68" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="1">
+    <row r="69">
+      <c r="A69" t="n">
         <v>38785</v>
       </c>
       <c r="B69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="1">
+    <row r="70">
+      <c r="A70" t="n">
         <v>38786</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="1">
+    <row r="71">
+      <c r="A71" t="n">
         <v>38787</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="1">
+    <row r="72">
+      <c r="A72" t="n">
         <v>38788</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="1">
+    <row r="73">
+      <c r="A73" t="n">
         <v>38789</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="1">
+    <row r="74">
+      <c r="A74" t="n">
         <v>38790</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="1">
+    <row r="75">
+      <c r="A75" t="n">
         <v>38791</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="1">
+    <row r="76">
+      <c r="A76" t="n">
         <v>38792</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="1">
+    <row r="77">
+      <c r="A77" t="n">
         <v>38793</v>
       </c>
       <c r="B77" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="1">
+    <row r="78">
+      <c r="A78" t="n">
         <v>38794</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="1">
+    <row r="79">
+      <c r="A79" t="n">
         <v>38795</v>
       </c>
       <c r="B79" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="1">
+    <row r="80">
+      <c r="A80" t="n">
         <v>38796</v>
       </c>
       <c r="B80" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="1">
+    <row r="81">
+      <c r="A81" t="n">
         <v>38797</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="1">
+    <row r="82">
+      <c r="A82" t="n">
         <v>38798</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="1">
+    <row r="83">
+      <c r="A83" t="n">
         <v>38799</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="1">
+    <row r="84">
+      <c r="A84" t="n">
         <v>38800</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="1">
+    <row r="85">
+      <c r="A85" t="n">
         <v>38801</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="1">
+    <row r="86">
+      <c r="A86" t="n">
         <v>38802</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="1">
+    <row r="87">
+      <c r="A87" t="n">
         <v>38803</v>
       </c>
       <c r="B87" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="1">
+    <row r="88">
+      <c r="A88" t="n">
         <v>38804</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="1">
+    <row r="89">
+      <c r="A89" t="n">
         <v>38805</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="1">
+    <row r="90">
+      <c r="A90" t="n">
         <v>38806</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="1">
+    <row r="91">
+      <c r="A91" t="n">
         <v>38807</v>
       </c>
       <c r="B91" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="1">
+    <row r="92">
+      <c r="A92" t="n">
         <v>38808</v>
       </c>
       <c r="B92" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="1">
+    <row r="93">
+      <c r="A93" t="n">
         <v>38809</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="1">
+    <row r="94">
+      <c r="A94" t="n">
         <v>38810</v>
       </c>
       <c r="B94" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="1">
+    <row r="95">
+      <c r="A95" t="n">
         <v>38811</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="1">
+    <row r="96">
+      <c r="A96" t="n">
         <v>38812</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="1">
+    <row r="97">
+      <c r="A97" t="n">
         <v>38813</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="1">
+    <row r="98">
+      <c r="A98" t="n">
         <v>38814</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="1">
+    <row r="99">
+      <c r="A99" t="n">
         <v>38815</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="1">
+    <row r="100">
+      <c r="A100" t="n">
         <v>38816</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="1">
+    <row r="101">
+      <c r="A101" t="n">
         <v>38817</v>
       </c>
       <c r="B101" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="1">
+    <row r="102">
+      <c r="A102" t="n">
         <v>38818</v>
       </c>
       <c r="B102" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="1">
+    <row r="103">
+      <c r="A103" t="n">
         <v>38819</v>
       </c>
       <c r="B103" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="1">
+    <row r="104">
+      <c r="A104" t="n">
         <v>38820</v>
       </c>
       <c r="B104" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="1">
+    <row r="105">
+      <c r="A105" t="n">
         <v>38821</v>
       </c>
       <c r="B105" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="1">
+    <row r="106">
+      <c r="A106" t="n">
         <v>38822</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="1">
+    <row r="107">
+      <c r="A107" t="n">
         <v>38823</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="1">
+    <row r="108">
+      <c r="A108" t="n">
         <v>38824</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="1">
+    <row r="109">
+      <c r="A109" t="n">
         <v>38825</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="1">
+    <row r="110">
+      <c r="A110" t="n">
         <v>38826</v>
       </c>
       <c r="B110" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="1">
+    <row r="111">
+      <c r="A111" t="n">
         <v>38827</v>
       </c>
       <c r="B111" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="1">
+    <row r="112">
+      <c r="A112" t="n">
         <v>38828</v>
       </c>
       <c r="B112" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="1">
+    <row r="113">
+      <c r="A113" t="n">
         <v>38829</v>
       </c>
       <c r="B113" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="1">
+    <row r="114">
+      <c r="A114" t="n">
         <v>38830</v>
       </c>
       <c r="B114" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="1">
+    <row r="115">
+      <c r="A115" t="n">
         <v>38831</v>
       </c>
       <c r="B115" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="1">
+    <row r="116">
+      <c r="A116" t="n">
         <v>38832</v>
       </c>
       <c r="B116" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="1">
+    <row r="117">
+      <c r="A117" t="n">
         <v>38833</v>
       </c>
       <c r="B117" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="1">
+    <row r="118">
+      <c r="A118" t="n">
         <v>38834</v>
       </c>
       <c r="B118" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="1">
+    <row r="119">
+      <c r="A119" t="n">
         <v>38835</v>
       </c>
       <c r="B119" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="1">
+    <row r="120">
+      <c r="A120" t="n">
         <v>38836</v>
       </c>
       <c r="B120" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="1">
+    <row r="121">
+      <c r="A121" t="n">
         <v>38837</v>
       </c>
       <c r="B121" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="1">
+    <row r="122">
+      <c r="A122" t="n">
         <v>38838</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="1">
+    <row r="123">
+      <c r="A123" t="n">
         <v>38839</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="1">
+    <row r="124">
+      <c r="A124" t="n">
         <v>38840</v>
       </c>
       <c r="B124" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="1">
+    <row r="125">
+      <c r="A125" t="n">
         <v>38841</v>
       </c>
       <c r="B125" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="1">
+    <row r="126">
+      <c r="A126" t="n">
         <v>38842</v>
       </c>
       <c r="B126" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="1">
+    <row r="127">
+      <c r="A127" t="n">
         <v>38843</v>
       </c>
       <c r="B127" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="1">
+    <row r="128">
+      <c r="A128" t="n">
         <v>38844</v>
       </c>
       <c r="B128" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="1">
+    <row r="129">
+      <c r="A129" t="n">
         <v>38845</v>
       </c>
       <c r="B129" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="1">
+    <row r="130">
+      <c r="A130" t="n">
         <v>38846</v>
       </c>
       <c r="B130" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="1">
+    <row r="131">
+      <c r="A131" t="n">
         <v>38847</v>
       </c>
       <c r="B131" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="1">
+    <row r="132">
+      <c r="A132" t="n">
         <v>38848</v>
       </c>
       <c r="B132" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="1">
+    <row r="133">
+      <c r="A133" t="n">
         <v>38849</v>
       </c>
       <c r="B133" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="1">
+    <row r="134">
+      <c r="A134" t="n">
         <v>38850</v>
       </c>
       <c r="B134" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="1">
+    <row r="135">
+      <c r="A135" t="n">
         <v>38851</v>
       </c>
       <c r="B135" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="1">
+    <row r="136">
+      <c r="A136" t="n">
         <v>38852</v>
       </c>
       <c r="B136" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="1">
+    <row r="137">
+      <c r="A137" t="n">
         <v>38853</v>
       </c>
       <c r="B137" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="1">
+    <row r="138">
+      <c r="A138" t="n">
         <v>38854</v>
       </c>
       <c r="B138" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="1">
+    <row r="139">
+      <c r="A139" t="n">
         <v>38855</v>
       </c>
       <c r="B139" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="1">
+    <row r="140">
+      <c r="A140" t="n">
         <v>38856</v>
       </c>
       <c r="B140" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="1">
+    <row r="141">
+      <c r="A141" t="n">
         <v>38857</v>
       </c>
       <c r="B141" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="1">
+    <row r="142">
+      <c r="A142" t="n">
         <v>38858</v>
       </c>
       <c r="B142" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="1">
+    <row r="143">
+      <c r="A143" t="n">
         <v>38859</v>
       </c>
       <c r="B143" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="1">
+    <row r="144">
+      <c r="A144" t="n">
         <v>38860</v>
       </c>
       <c r="B144" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="1">
+    <row r="145">
+      <c r="A145" t="n">
         <v>38861</v>
       </c>
       <c r="B145" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="1">
+    <row r="146">
+      <c r="A146" t="n">
         <v>38862</v>
       </c>
       <c r="B146" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="1">
+    <row r="147">
+      <c r="A147" t="n">
         <v>38863</v>
       </c>
       <c r="B147" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="1">
+    <row r="148">
+      <c r="A148" t="n">
         <v>38864</v>
       </c>
       <c r="B148" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="1">
+    <row r="149">
+      <c r="A149" t="n">
         <v>38865</v>
       </c>
       <c r="B149" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="1">
+    <row r="150">
+      <c r="A150" t="n">
         <v>38866</v>
       </c>
       <c r="B150" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="1">
+    <row r="151">
+      <c r="A151" t="n">
         <v>38867</v>
       </c>
       <c r="B151" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="1">
+    <row r="152">
+      <c r="A152" t="n">
         <v>38868</v>
       </c>
       <c r="B152" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="1">
+    <row r="153">
+      <c r="A153" t="n">
         <v>38869</v>
       </c>
       <c r="B153" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="1">
+    <row r="154">
+      <c r="A154" t="n">
         <v>38870</v>
       </c>
       <c r="B154" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="1">
+    <row r="155">
+      <c r="A155" t="n">
         <v>38871</v>
       </c>
       <c r="B155" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="1">
+    <row r="156">
+      <c r="A156" t="n">
         <v>38872</v>
       </c>
       <c r="B156" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="1">
+    <row r="157">
+      <c r="A157" t="n">
         <v>38873</v>
       </c>
       <c r="B157" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="1">
+    <row r="158">
+      <c r="A158" t="n">
         <v>38874</v>
       </c>
       <c r="B158" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="1">
+    <row r="159">
+      <c r="A159" t="n">
         <v>38875</v>
       </c>
       <c r="B159" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="1">
+    <row r="160">
+      <c r="A160" t="n">
         <v>38876</v>
       </c>
       <c r="B160" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="1">
+    <row r="161">
+      <c r="A161" t="n">
         <v>38877</v>
       </c>
       <c r="B161" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="1">
+    <row r="162">
+      <c r="A162" t="n">
         <v>38878</v>
       </c>
       <c r="B162" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="1">
+    <row r="163">
+      <c r="A163" t="n">
         <v>38879</v>
       </c>
       <c r="B163" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="1">
+    <row r="164">
+      <c r="A164" t="n">
         <v>38880</v>
       </c>
       <c r="B164" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="1">
+    <row r="165">
+      <c r="A165" t="n">
         <v>38881</v>
       </c>
       <c r="B165" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="1">
+    <row r="166">
+      <c r="A166" t="n">
         <v>38882</v>
       </c>
       <c r="B166" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="1">
+    <row r="167">
+      <c r="A167" t="n">
         <v>38883</v>
       </c>
       <c r="B167" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="1">
+    <row r="168">
+      <c r="A168" t="n">
         <v>38884</v>
       </c>
       <c r="B168" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="1">
+    <row r="169">
+      <c r="A169" t="n">
         <v>38885</v>
       </c>
       <c r="B169" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="1">
+    <row r="170">
+      <c r="A170" t="n">
         <v>38886</v>
       </c>
       <c r="B170" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="1">
+    <row r="171">
+      <c r="A171" t="n">
         <v>38887</v>
       </c>
       <c r="B171" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="1">
+    <row r="172">
+      <c r="A172" t="n">
         <v>38888</v>
       </c>
       <c r="B172" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="1">
+    <row r="173">
+      <c r="A173" t="n">
         <v>38889</v>
       </c>
       <c r="B173" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="1">
+    <row r="174">
+      <c r="A174" t="n">
         <v>38890</v>
       </c>
       <c r="B174" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="1">
+    <row r="175">
+      <c r="A175" t="n">
         <v>38891</v>
       </c>
       <c r="B175" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="1">
+    <row r="176">
+      <c r="A176" t="n">
         <v>38892</v>
       </c>
       <c r="B176" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="1">
+    <row r="177">
+      <c r="A177" t="n">
         <v>38893</v>
       </c>
       <c r="B177" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="1">
+    <row r="178">
+      <c r="A178" t="n">
         <v>38894</v>
       </c>
       <c r="B178" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="1">
+    <row r="179">
+      <c r="A179" t="n">
         <v>38895</v>
       </c>
       <c r="B179" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="1">
+    <row r="180">
+      <c r="A180" t="n">
         <v>38896</v>
       </c>
       <c r="B180" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="1">
+    <row r="181">
+      <c r="A181" t="n">
         <v>38897</v>
       </c>
       <c r="B181" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="1">
+    <row r="182">
+      <c r="A182" t="n">
         <v>38898</v>
       </c>
       <c r="B182" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="1">
+    <row r="183">
+      <c r="A183" t="n">
         <v>38899</v>
       </c>
       <c r="B183" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="1">
+    <row r="184">
+      <c r="A184" t="n">
         <v>38900</v>
       </c>
       <c r="B184" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="1">
+    <row r="185">
+      <c r="A185" t="n">
         <v>38901</v>
       </c>
       <c r="B185" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="1">
+    <row r="186">
+      <c r="A186" t="n">
         <v>38902</v>
       </c>
       <c r="B186" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="1">
+    <row r="187">
+      <c r="A187" t="n">
         <v>38903</v>
       </c>
       <c r="B187" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="1">
+    <row r="188">
+      <c r="A188" t="n">
         <v>38904</v>
       </c>
       <c r="B188" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="1">
+    <row r="189">
+      <c r="A189" t="n">
         <v>38905</v>
       </c>
       <c r="B189" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="1">
+    <row r="190">
+      <c r="A190" t="n">
         <v>38906</v>
       </c>
       <c r="B190" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="1">
+    <row r="191">
+      <c r="A191" t="n">
         <v>38907</v>
       </c>
       <c r="B191" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="1">
+    <row r="192">
+      <c r="A192" t="n">
         <v>38908</v>
       </c>
       <c r="B192" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="1">
+    <row r="193">
+      <c r="A193" t="n">
         <v>38909</v>
       </c>
       <c r="B193" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="1">
+    <row r="194">
+      <c r="A194" t="n">
         <v>38910</v>
       </c>
       <c r="B194" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="1">
+    <row r="195">
+      <c r="A195" t="n">
         <v>38911</v>
       </c>
       <c r="B195" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="1">
+    <row r="196">
+      <c r="A196" t="n">
         <v>38912</v>
       </c>
       <c r="B196" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="1">
+    <row r="197">
+      <c r="A197" t="n">
         <v>38913</v>
       </c>
       <c r="B197" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="1">
+    <row r="198">
+      <c r="A198" t="n">
         <v>38914</v>
       </c>
       <c r="B198" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="1">
+    <row r="199">
+      <c r="A199" t="n">
         <v>38915</v>
       </c>
       <c r="B199" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="1">
+    <row r="200">
+      <c r="A200" t="n">
         <v>38916</v>
       </c>
       <c r="B200" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="1">
+    <row r="201">
+      <c r="A201" t="n">
         <v>38917</v>
       </c>
       <c r="B201" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="1">
+    <row r="202">
+      <c r="A202" t="n">
         <v>38918</v>
       </c>
       <c r="B202" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="1">
+    <row r="203">
+      <c r="A203" t="n">
         <v>38919</v>
       </c>
       <c r="B203" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="1">
+    <row r="204">
+      <c r="A204" t="n">
         <v>38920</v>
       </c>
       <c r="B204" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="1">
+    <row r="205">
+      <c r="A205" t="n">
         <v>38921</v>
       </c>
       <c r="B205" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="1">
+    <row r="206">
+      <c r="A206" t="n">
         <v>38922</v>
       </c>
       <c r="B206" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="1">
+    <row r="207">
+      <c r="A207" t="n">
         <v>38923</v>
       </c>
       <c r="B207" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="1">
+    <row r="208">
+      <c r="A208" t="n">
         <v>38924</v>
       </c>
       <c r="B208" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="1">
+    <row r="209">
+      <c r="A209" t="n">
         <v>38925</v>
       </c>
       <c r="B209" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="1">
+    <row r="210">
+      <c r="A210" t="n">
         <v>38926</v>
       </c>
       <c r="B210" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="1">
+    <row r="211">
+      <c r="A211" t="n">
         <v>38927</v>
       </c>
       <c r="B211" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="1">
+    <row r="212">
+      <c r="A212" t="n">
         <v>38928</v>
       </c>
       <c r="B212" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="1">
+    <row r="213">
+      <c r="A213" t="n">
         <v>38929</v>
       </c>
       <c r="B213" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="1">
+    <row r="214">
+      <c r="A214" t="n">
         <v>38930</v>
       </c>
       <c r="B214" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="1">
+    <row r="215">
+      <c r="A215" t="n">
         <v>38931</v>
       </c>
       <c r="B215" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="1">
+    <row r="216">
+      <c r="A216" t="n">
         <v>38932</v>
       </c>
       <c r="B216" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="1">
+    <row r="217">
+      <c r="A217" t="n">
         <v>38933</v>
       </c>
       <c r="B217" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="1">
+    <row r="218">
+      <c r="A218" t="n">
         <v>38934</v>
       </c>
       <c r="B218" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="1">
+    <row r="219">
+      <c r="A219" t="n">
         <v>38935</v>
       </c>
       <c r="B219" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="1">
+    <row r="220">
+      <c r="A220" t="n">
         <v>38936</v>
       </c>
       <c r="B220" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="1">
+    <row r="221">
+      <c r="A221" t="n">
         <v>38937</v>
       </c>
       <c r="B221" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
+    <row r="222">
+      <c r="A222" t="n">
         <v>38938</v>
       </c>
       <c r="B222" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="1">
+    <row r="223">
+      <c r="A223" t="n">
         <v>38939</v>
       </c>
       <c r="B223" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="1">
+    <row r="224">
+      <c r="A224" t="n">
         <v>38940</v>
       </c>
       <c r="B224" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="1">
+    <row r="225">
+      <c r="A225" t="n">
         <v>38941</v>
       </c>
       <c r="B225" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="1">
+    <row r="226">
+      <c r="A226" t="n">
         <v>38942</v>
       </c>
       <c r="B226" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="1">
+    <row r="227">
+      <c r="A227" t="n">
         <v>38943</v>
       </c>
       <c r="B227" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="1">
+    <row r="228">
+      <c r="A228" t="n">
         <v>38944</v>
       </c>
       <c r="B228" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="1">
+    <row r="229">
+      <c r="A229" t="n">
         <v>38945</v>
       </c>
       <c r="B229" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="1">
+    <row r="230">
+      <c r="A230" t="n">
         <v>38946</v>
       </c>
       <c r="B230" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="1">
+    <row r="231">
+      <c r="A231" t="n">
         <v>38947</v>
       </c>
       <c r="B231" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="1">
+    <row r="232">
+      <c r="A232" t="n">
         <v>38948</v>
       </c>
       <c r="B232" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="1">
+    <row r="233">
+      <c r="A233" t="n">
         <v>38949</v>
       </c>
       <c r="B233" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="1">
+    <row r="234">
+      <c r="A234" t="n">
         <v>38950</v>
       </c>
       <c r="B234" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="1">
+    <row r="235">
+      <c r="A235" t="n">
         <v>38951</v>
       </c>
       <c r="B235" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="1">
+    <row r="236">
+      <c r="A236" t="n">
         <v>38952</v>
       </c>
       <c r="B236" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="1">
+    <row r="237">
+      <c r="A237" t="n">
         <v>38953</v>
       </c>
       <c r="B237" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="1">
+    <row r="238">
+      <c r="A238" t="n">
         <v>38954</v>
       </c>
       <c r="B238" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="1">
+    <row r="239">
+      <c r="A239" t="n">
         <v>38955</v>
       </c>
       <c r="B239" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="1">
+    <row r="240">
+      <c r="A240" t="n">
         <v>38956</v>
       </c>
       <c r="B240" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="1">
+    <row r="241">
+      <c r="A241" t="n">
         <v>38957</v>
       </c>
       <c r="B241" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="1">
+    <row r="242">
+      <c r="A242" t="n">
         <v>38958</v>
       </c>
       <c r="B242" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="1">
+    <row r="243">
+      <c r="A243" t="n">
         <v>38959</v>
       </c>
       <c r="B243" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="1">
+    <row r="244">
+      <c r="A244" t="n">
         <v>38960</v>
       </c>
       <c r="B244" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="1">
+    <row r="245">
+      <c r="A245" t="n">
         <v>38961</v>
       </c>
       <c r="B245" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="1">
+    <row r="246">
+      <c r="A246" t="n">
         <v>38962</v>
       </c>
       <c r="B246" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="1">
+    <row r="247">
+      <c r="A247" t="n">
         <v>38963</v>
       </c>
       <c r="B247" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="1">
+    <row r="248">
+      <c r="A248" t="n">
         <v>38964</v>
       </c>
       <c r="B248" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="1">
+    <row r="249">
+      <c r="A249" t="n">
         <v>38965</v>
       </c>
       <c r="B249" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="1">
+    <row r="250">
+      <c r="A250" t="n">
         <v>38966</v>
       </c>
       <c r="B250" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="1">
+    <row r="251">
+      <c r="A251" t="n">
         <v>38967</v>
       </c>
       <c r="B251" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="1">
+    <row r="252">
+      <c r="A252" t="n">
         <v>38968</v>
       </c>
       <c r="B252" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="1">
+    <row r="253">
+      <c r="A253" t="n">
         <v>38969</v>
       </c>
       <c r="B253" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="1">
+    <row r="254">
+      <c r="A254" t="n">
         <v>38970</v>
       </c>
       <c r="B254" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="1">
+    <row r="255">
+      <c r="A255" t="n">
         <v>38971</v>
       </c>
       <c r="B255" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="1">
+    <row r="256">
+      <c r="A256" t="n">
         <v>38972</v>
       </c>
       <c r="B256" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" s="1">
+    <row r="257">
+      <c r="A257" t="n">
         <v>38973</v>
       </c>
       <c r="B257" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" s="1">
+    <row r="258">
+      <c r="A258" t="n">
         <v>38974</v>
       </c>
       <c r="B258" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" s="1">
+    <row r="259">
+      <c r="A259" t="n">
         <v>38975</v>
       </c>
       <c r="B259" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="1">
+    <row r="260">
+      <c r="A260" t="n">
         <v>38976</v>
       </c>
       <c r="B260" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="1">
+    <row r="261">
+      <c r="A261" t="n">
         <v>38977</v>
       </c>
       <c r="B261" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="1">
+    <row r="262">
+      <c r="A262" t="n">
         <v>38978</v>
       </c>
       <c r="B262" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="1">
+    <row r="263">
+      <c r="A263" t="n">
         <v>38979</v>
       </c>
       <c r="B263" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" s="1">
+    <row r="264">
+      <c r="A264" t="n">
         <v>38980</v>
       </c>
       <c r="B264" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="1">
+    <row r="265">
+      <c r="A265" t="n">
         <v>38981</v>
       </c>
       <c r="B265" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="1">
+    <row r="266">
+      <c r="A266" t="n">
         <v>38982</v>
       </c>
       <c r="B266" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" s="1">
+    <row r="267">
+      <c r="A267" t="n">
         <v>38983</v>
       </c>
       <c r="B267" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="1">
+    <row r="268">
+      <c r="A268" t="n">
         <v>38984</v>
       </c>
       <c r="B268" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="1">
+    <row r="269">
+      <c r="A269" t="n">
         <v>38985</v>
       </c>
       <c r="B269" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="1">
+    <row r="270">
+      <c r="A270" t="n">
         <v>38986</v>
       </c>
       <c r="B270" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" s="1">
+    <row r="271">
+      <c r="A271" t="n">
         <v>38987</v>
       </c>
       <c r="B271" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" s="1">
+    <row r="272">
+      <c r="A272" t="n">
         <v>38988</v>
       </c>
       <c r="B272" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="1">
+    <row r="273">
+      <c r="A273" t="n">
         <v>38989</v>
       </c>
       <c r="B273" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="1">
+    <row r="274">
+      <c r="A274" t="n">
         <v>38990</v>
       </c>
       <c r="B274" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" s="1">
+    <row r="275">
+      <c r="A275" t="n">
         <v>38991</v>
       </c>
       <c r="B275" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="1">
+    <row r="276">
+      <c r="A276" t="n">
         <v>38992</v>
       </c>
       <c r="B276" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" s="1">
+    <row r="277">
+      <c r="A277" t="n">
         <v>38993</v>
       </c>
       <c r="B277" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="1">
+    <row r="278">
+      <c r="A278" t="n">
         <v>38994</v>
       </c>
       <c r="B278" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="1">
+    <row r="279">
+      <c r="A279" t="n">
         <v>38995</v>
       </c>
       <c r="B279" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" s="1">
+    <row r="280">
+      <c r="A280" t="n">
         <v>38996</v>
       </c>
       <c r="B280" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" s="1">
+    <row r="281">
+      <c r="A281" t="n">
         <v>38997</v>
       </c>
       <c r="B281" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" s="1">
+    <row r="282">
+      <c r="A282" t="n">
         <v>38998</v>
       </c>
       <c r="B282" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" s="1">
+    <row r="283">
+      <c r="A283" t="n">
         <v>38999</v>
       </c>
       <c r="B283" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" s="1">
+    <row r="284">
+      <c r="A284" t="n">
         <v>39000</v>
       </c>
       <c r="B284" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" s="1">
+    <row r="285">
+      <c r="A285" t="n">
         <v>39001</v>
       </c>
       <c r="B285" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" s="1">
+    <row r="286">
+      <c r="A286" t="n">
         <v>39002</v>
       </c>
       <c r="B286" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" s="1">
+    <row r="287">
+      <c r="A287" t="n">
         <v>39003</v>
       </c>
       <c r="B287" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" s="1">
+    <row r="288">
+      <c r="A288" t="n">
         <v>39004</v>
       </c>
       <c r="B288" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="1">
+    <row r="289">
+      <c r="A289" t="n">
         <v>39005</v>
       </c>
       <c r="B289" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="1">
+    <row r="290">
+      <c r="A290" t="n">
         <v>39006</v>
       </c>
       <c r="B290" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="1">
+    <row r="291">
+      <c r="A291" t="n">
         <v>39007</v>
       </c>
       <c r="B291" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="1">
+    <row r="292">
+      <c r="A292" t="n">
         <v>39008</v>
       </c>
       <c r="B292" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="1">
+    <row r="293">
+      <c r="A293" t="n">
         <v>39009</v>
       </c>
       <c r="B293" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="1">
+    <row r="294">
+      <c r="A294" t="n">
         <v>39010</v>
       </c>
       <c r="B294" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="1">
+    <row r="295">
+      <c r="A295" t="n">
         <v>39011</v>
       </c>
       <c r="B295" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="1">
+    <row r="296">
+      <c r="A296" t="n">
         <v>39012</v>
       </c>
       <c r="B296" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="1">
+    <row r="297">
+      <c r="A297" t="n">
         <v>39013</v>
       </c>
       <c r="B297" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="1">
+    <row r="298">
+      <c r="A298" t="n">
         <v>39014</v>
       </c>
       <c r="B298" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="1">
+    <row r="299">
+      <c r="A299" t="n">
         <v>39015</v>
       </c>
       <c r="B299" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="1">
+    <row r="300">
+      <c r="A300" t="n">
         <v>39016</v>
       </c>
       <c r="B300" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="1">
+    <row r="301">
+      <c r="A301" t="n">
         <v>39017</v>
       </c>
       <c r="B301" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="1">
+    <row r="302">
+      <c r="A302" t="n">
         <v>39018</v>
       </c>
       <c r="B302" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="1">
+    <row r="303">
+      <c r="A303" t="n">
         <v>39019</v>
       </c>
       <c r="B303" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="1">
+    <row r="304">
+      <c r="A304" t="n">
         <v>39020</v>
       </c>
       <c r="B304" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" s="1">
+    <row r="305">
+      <c r="A305" t="n">
         <v>39021</v>
       </c>
       <c r="B305" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="1">
+    <row r="306">
+      <c r="A306" t="n">
         <v>39022</v>
       </c>
       <c r="B306" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="1">
+    <row r="307">
+      <c r="A307" t="n">
         <v>39023</v>
       </c>
       <c r="B307" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="1">
+    <row r="308">
+      <c r="A308" t="n">
         <v>39024</v>
       </c>
       <c r="B308" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="1">
+    <row r="309">
+      <c r="A309" t="n">
         <v>39025</v>
       </c>
       <c r="B309" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="1">
+    <row r="310">
+      <c r="A310" t="n">
         <v>39026</v>
       </c>
       <c r="B310" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="1">
+    <row r="311">
+      <c r="A311" t="n">
         <v>39027</v>
       </c>
       <c r="B311" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="1">
+    <row r="312">
+      <c r="A312" t="n">
         <v>39028</v>
       </c>
       <c r="B312" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="1">
+    <row r="313">
+      <c r="A313" t="n">
         <v>39029</v>
       </c>
       <c r="B313" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="1">
+    <row r="314">
+      <c r="A314" t="n">
         <v>39030</v>
       </c>
       <c r="B314" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" s="1">
+    <row r="315">
+      <c r="A315" t="n">
         <v>39031</v>
       </c>
       <c r="B315" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="1">
+    <row r="316">
+      <c r="A316" t="n">
         <v>39032</v>
       </c>
       <c r="B316" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="1">
+    <row r="317">
+      <c r="A317" t="n">
         <v>39033</v>
       </c>
       <c r="B317" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="1">
+    <row r="318">
+      <c r="A318" t="n">
         <v>39034</v>
       </c>
       <c r="B318" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="1">
+    <row r="319">
+      <c r="A319" t="n">
         <v>39035</v>
       </c>
       <c r="B319" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="1">
+    <row r="320">
+      <c r="A320" t="n">
         <v>39036</v>
       </c>
       <c r="B320" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="1">
+    <row r="321">
+      <c r="A321" t="n">
         <v>39037</v>
       </c>
       <c r="B321" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="1">
+    <row r="322">
+      <c r="A322" t="n">
         <v>39038</v>
       </c>
       <c r="B322" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="1">
+    <row r="323">
+      <c r="A323" t="n">
         <v>39039</v>
       </c>
       <c r="B323" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="1">
+    <row r="324">
+      <c r="A324" t="n">
         <v>39040</v>
       </c>
       <c r="B324" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="1">
+    <row r="325">
+      <c r="A325" t="n">
         <v>39041</v>
       </c>
       <c r="B325" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="1">
+    <row r="326">
+      <c r="A326" t="n">
         <v>39042</v>
       </c>
       <c r="B326" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" s="1">
+    <row r="327">
+      <c r="A327" t="n">
         <v>39043</v>
       </c>
       <c r="B327" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="1">
+    <row r="328">
+      <c r="A328" t="n">
         <v>39044</v>
       </c>
       <c r="B328" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="1">
+    <row r="329">
+      <c r="A329" t="n">
         <v>39045</v>
       </c>
       <c r="B329" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" s="1">
+    <row r="330">
+      <c r="A330" t="n">
         <v>39046</v>
       </c>
       <c r="B330" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="1">
+    <row r="331">
+      <c r="A331" t="n">
         <v>39047</v>
       </c>
       <c r="B331" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="1">
+    <row r="332">
+      <c r="A332" t="n">
         <v>39048</v>
       </c>
       <c r="B332" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="1">
+    <row r="333">
+      <c r="A333" t="n">
         <v>39049</v>
       </c>
       <c r="B333" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="1">
+    <row r="334">
+      <c r="A334" t="n">
         <v>39050</v>
       </c>
       <c r="B334" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="1">
+    <row r="335">
+      <c r="A335" t="n">
         <v>39051</v>
       </c>
       <c r="B335" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="1">
+    <row r="336">
+      <c r="A336" t="n">
         <v>39052</v>
       </c>
       <c r="B336" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="1">
+    <row r="337">
+      <c r="A337" t="n">
         <v>39053</v>
       </c>
       <c r="B337" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="1">
+    <row r="338">
+      <c r="A338" t="n">
         <v>39054</v>
       </c>
       <c r="B338" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="1">
+    <row r="339">
+      <c r="A339" t="n">
         <v>39055</v>
       </c>
       <c r="B339" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" s="1">
+    <row r="340">
+      <c r="A340" t="n">
         <v>39056</v>
       </c>
       <c r="B340" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" s="1">
+    <row r="341">
+      <c r="A341" t="n">
         <v>39057</v>
       </c>
       <c r="B341" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" s="1">
+    <row r="342">
+      <c r="A342" t="n">
         <v>39058</v>
       </c>
       <c r="B342" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" s="1">
+    <row r="343">
+      <c r="A343" t="n">
         <v>39059</v>
       </c>
       <c r="B343" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" s="1">
+    <row r="344">
+      <c r="A344" t="n">
         <v>39060</v>
       </c>
       <c r="B344" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" s="1">
+    <row r="345">
+      <c r="A345" t="n">
         <v>39061</v>
       </c>
       <c r="B345" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" s="1">
+    <row r="346">
+      <c r="A346" t="n">
         <v>39062</v>
       </c>
       <c r="B346" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" s="1">
+    <row r="347">
+      <c r="A347" t="n">
         <v>39063</v>
       </c>
       <c r="B347" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" s="1">
+    <row r="348">
+      <c r="A348" t="n">
         <v>39064</v>
       </c>
       <c r="B348" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" s="1">
+    <row r="349">
+      <c r="A349" t="n">
         <v>39065</v>
       </c>
       <c r="B349" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" s="1">
+    <row r="350">
+      <c r="A350" t="n">
         <v>39066</v>
       </c>
       <c r="B350" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" s="1">
+    <row r="351">
+      <c r="A351" t="n">
         <v>39067</v>
       </c>
       <c r="B351" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" s="1">
+    <row r="352">
+      <c r="A352" t="n">
         <v>39068</v>
       </c>
       <c r="B352" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" s="1">
+    <row r="353">
+      <c r="A353" t="n">
         <v>39069</v>
       </c>
       <c r="B353" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" s="1">
+    <row r="354">
+      <c r="A354" t="n">
         <v>39070</v>
       </c>
       <c r="B354" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" s="1">
+    <row r="355">
+      <c r="A355" t="n">
         <v>39071</v>
       </c>
       <c r="B355" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" s="1">
+    <row r="356">
+      <c r="A356" t="n">
         <v>39072</v>
       </c>
       <c r="B356" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" s="1">
+    <row r="357">
+      <c r="A357" t="n">
         <v>39073</v>
       </c>
       <c r="B357" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A358" s="1">
+    <row r="358">
+      <c r="A358" t="n">
         <v>39074</v>
       </c>
       <c r="B358" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A359" s="1">
+    <row r="359">
+      <c r="A359" t="n">
         <v>39075</v>
       </c>
       <c r="B359" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A360" s="1">
+    <row r="360">
+      <c r="A360" t="n">
         <v>39076</v>
       </c>
       <c r="B360" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A361" s="1">
+    <row r="361">
+      <c r="A361" t="n">
         <v>39077</v>
       </c>
       <c r="B361" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A362" s="1">
+    <row r="362">
+      <c r="A362" t="n">
         <v>39078</v>
       </c>
       <c r="B362" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A363" s="1">
+    <row r="363">
+      <c r="A363" t="n">
         <v>39079</v>
       </c>
       <c r="B363" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A364" s="1">
+    <row r="364">
+      <c r="A364" t="n">
         <v>39080</v>
       </c>
       <c r="B364" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A365" s="1">
+    <row r="365">
+      <c r="A365" t="n">
         <v>39081</v>
       </c>
       <c r="B365" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A366" s="1">
+    <row r="366">
+      <c r="A366" t="n">
         <v>39082</v>
       </c>
       <c r="B366" t="s">
@@ -4400,6 +4374,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>